--- a/Code/Results/Cases/Case_2_83/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_83/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9913732534279253</v>
+        <v>1.018146673569414</v>
       </c>
       <c r="D2">
-        <v>1.011739147395812</v>
+        <v>1.024205015779447</v>
       </c>
       <c r="E2">
-        <v>1.013202992735281</v>
+        <v>1.046848230342142</v>
       </c>
       <c r="F2">
-        <v>1.018080619433413</v>
+        <v>1.050579995130683</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043305240237919</v>
+        <v>1.030058161607156</v>
       </c>
       <c r="J2">
-        <v>1.013815086596725</v>
+        <v>1.023356762531119</v>
       </c>
       <c r="K2">
-        <v>1.023037324417766</v>
+        <v>1.027034201238806</v>
       </c>
       <c r="L2">
-        <v>1.024481403008048</v>
+        <v>1.049612517975328</v>
       </c>
       <c r="M2">
-        <v>1.029293680747323</v>
+        <v>1.053333878358224</v>
       </c>
       <c r="N2">
-        <v>1.008701108786695</v>
+        <v>1.011896732055202</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.99525799821428</v>
+        <v>1.01895491357453</v>
       </c>
       <c r="D3">
-        <v>1.014484329475175</v>
+        <v>1.024781769266521</v>
       </c>
       <c r="E3">
-        <v>1.01772266317276</v>
+        <v>1.047886765717097</v>
       </c>
       <c r="F3">
-        <v>1.022725497034219</v>
+        <v>1.051632725503216</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044352563979431</v>
+        <v>1.030192409588552</v>
       </c>
       <c r="J3">
-        <v>1.015878775069103</v>
+        <v>1.023801938309647</v>
       </c>
       <c r="K3">
-        <v>1.024935175217605</v>
+        <v>1.027418623519208</v>
       </c>
       <c r="L3">
-        <v>1.02813369199124</v>
+        <v>1.050462189824797</v>
       </c>
       <c r="M3">
-        <v>1.033075629167209</v>
+        <v>1.054198464564233</v>
       </c>
       <c r="N3">
-        <v>1.00938344093795</v>
+        <v>1.012043665117992</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9977214037039649</v>
+        <v>1.019478115695039</v>
       </c>
       <c r="D4">
-        <v>1.016225087309248</v>
+        <v>1.025154770441733</v>
       </c>
       <c r="E4">
-        <v>1.020594766396913</v>
+        <v>1.048559736440967</v>
       </c>
       <c r="F4">
-        <v>1.025674532072809</v>
+        <v>1.052314578351837</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045001975888227</v>
+        <v>1.030277488851436</v>
       </c>
       <c r="J4">
-        <v>1.017183576350638</v>
+        <v>1.024089570743041</v>
       </c>
       <c r="K4">
-        <v>1.026131555671382</v>
+        <v>1.0276664745932</v>
       </c>
       <c r="L4">
-        <v>1.030450825954904</v>
+        <v>1.051012348357931</v>
       </c>
       <c r="M4">
-        <v>1.035472656917704</v>
+        <v>1.0547579734125</v>
       </c>
       <c r="N4">
-        <v>1.009814852099126</v>
+        <v>1.012138588311127</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9987453606658735</v>
+        <v>1.019698120345175</v>
       </c>
       <c r="D5">
-        <v>1.016948607090758</v>
+        <v>1.025311531306125</v>
       </c>
       <c r="E5">
-        <v>1.021790102265894</v>
+        <v>1.048842884398875</v>
       </c>
       <c r="F5">
-        <v>1.02690124922415</v>
+        <v>1.05260138770807</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04526833415763</v>
+        <v>1.030312827277336</v>
       </c>
       <c r="J5">
-        <v>1.017724994922504</v>
+        <v>1.024210388337002</v>
       </c>
       <c r="K5">
-        <v>1.026627109671175</v>
+        <v>1.027770455508196</v>
       </c>
       <c r="L5">
-        <v>1.031414274362283</v>
+        <v>1.051243721338312</v>
       </c>
       <c r="M5">
-        <v>1.036468748125232</v>
+        <v>1.054993205230426</v>
       </c>
       <c r="N5">
-        <v>1.009993860936339</v>
+        <v>1.012178457176797</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9989166145738241</v>
+        <v>1.01973506301272</v>
       </c>
       <c r="D6">
-        <v>1.017069608983467</v>
+        <v>1.025337849232278</v>
       </c>
       <c r="E6">
-        <v>1.021990107895514</v>
+        <v>1.048890439710933</v>
       </c>
       <c r="F6">
-        <v>1.027106468048201</v>
+        <v>1.052649553521719</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04531266989101</v>
+        <v>1.030318735580296</v>
       </c>
       <c r="J6">
-        <v>1.017815489386754</v>
+        <v>1.024230668066433</v>
       </c>
       <c r="K6">
-        <v>1.026709886079656</v>
+        <v>1.02778790167872</v>
       </c>
       <c r="L6">
-        <v>1.031575426092274</v>
+        <v>1.05128257491872</v>
       </c>
       <c r="M6">
-        <v>1.036635325733782</v>
+        <v>1.055032702498106</v>
       </c>
       <c r="N6">
-        <v>1.010023780883532</v>
+        <v>1.012185149163158</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9977351311876337</v>
+        <v>1.019481055211382</v>
       </c>
       <c r="D7">
-        <v>1.016234787326739</v>
+        <v>1.025156865282085</v>
       </c>
       <c r="E7">
-        <v>1.020610785477153</v>
+        <v>1.048563518971021</v>
       </c>
       <c r="F7">
-        <v>1.025690974224526</v>
+        <v>1.05231841009127</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045005560979445</v>
+        <v>1.030277962731502</v>
       </c>
       <c r="J7">
-        <v>1.017190838539948</v>
+        <v>1.024091185520046</v>
       </c>
       <c r="K7">
-        <v>1.026138206156995</v>
+        <v>1.027667864840266</v>
       </c>
       <c r="L7">
-        <v>1.030463741064455</v>
+        <v>1.051015439636812</v>
       </c>
       <c r="M7">
-        <v>1.035486011895061</v>
+        <v>1.054761116536597</v>
       </c>
       <c r="N7">
-        <v>1.009817253202476</v>
+        <v>1.012139121186113</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9926967670020628</v>
+        <v>1.018419776321182</v>
       </c>
       <c r="D8">
-        <v>1.012674391680173</v>
+        <v>1.024399972074914</v>
       </c>
       <c r="E8">
-        <v>1.014741572312596</v>
+        <v>1.047199007084129</v>
       </c>
       <c r="F8">
-        <v>1.019662369995107</v>
+        <v>1.050935631807771</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043665114225497</v>
+        <v>1.03010390110678</v>
       </c>
       <c r="J8">
-        <v>1.014518962647048</v>
+        <v>1.023507299340611</v>
       </c>
       <c r="K8">
-        <v>1.023685374147679</v>
+        <v>1.027164303314424</v>
       </c>
       <c r="L8">
-        <v>1.025725494522218</v>
+        <v>1.049899592688768</v>
       </c>
       <c r="M8">
-        <v>1.030582429198178</v>
+        <v>1.053626055531801</v>
       </c>
       <c r="N8">
-        <v>1.008933836614449</v>
+        <v>1.011946420084444</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.983415420862103</v>
+        <v>1.016551390287422</v>
       </c>
       <c r="D9">
-        <v>1.006117858684094</v>
+        <v>1.02306479592698</v>
       </c>
       <c r="E9">
-        <v>1.003976176510611</v>
+        <v>1.044802022460878</v>
       </c>
       <c r="F9">
-        <v>1.008583990947796</v>
+        <v>1.048504143781331</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041081025233303</v>
+        <v>1.029783522555148</v>
       </c>
       <c r="J9">
-        <v>1.009567729823273</v>
+        <v>1.022475201661363</v>
       </c>
       <c r="K9">
-        <v>1.019112451632379</v>
+        <v>1.026270155546002</v>
       </c>
       <c r="L9">
-        <v>1.01700507075314</v>
+        <v>1.047936151749639</v>
       </c>
       <c r="M9">
-        <v>1.02153931734999</v>
+        <v>1.051626463805487</v>
       </c>
       <c r="N9">
-        <v>1.00729680383645</v>
+        <v>1.011605706130513</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9769301638376403</v>
+        <v>1.015307041464747</v>
       </c>
       <c r="D10">
-        <v>1.001541504547916</v>
+        <v>1.022173814345917</v>
       </c>
       <c r="E10">
-        <v>0.9964827437924638</v>
+        <v>1.043209099243703</v>
       </c>
       <c r="F10">
-        <v>1.000859076242029</v>
+        <v>1.046886667783982</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039200823510378</v>
+        <v>1.029560800040062</v>
       </c>
       <c r="J10">
-        <v>1.006089961360544</v>
+        <v>1.02178503796283</v>
       </c>
       <c r="K10">
-        <v>1.015882982320627</v>
+        <v>1.025669550662573</v>
       </c>
       <c r="L10">
-        <v>1.01091579510935</v>
+        <v>1.046629136759671</v>
       </c>
       <c r="M10">
-        <v>1.015212837106263</v>
+        <v>1.050293815253129</v>
       </c>
       <c r="N10">
-        <v>1.006147038589831</v>
+        <v>1.01137781252228</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9740449444859448</v>
+        <v>1.014768536535882</v>
       </c>
       <c r="D11">
-        <v>0.9995075176499216</v>
+        <v>1.021787825390617</v>
       </c>
       <c r="E11">
-        <v>0.9931551967909955</v>
+        <v>1.0425205578577</v>
       </c>
       <c r="F11">
-        <v>0.9974255810241774</v>
+        <v>1.046187128328855</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038347341595321</v>
+        <v>1.029462201374751</v>
       </c>
       <c r="J11">
-        <v>1.004538817310584</v>
+        <v>1.021485704888454</v>
       </c>
       <c r="K11">
-        <v>1.014438727446595</v>
+        <v>1.025408428033314</v>
       </c>
       <c r="L11">
-        <v>1.008207360889022</v>
+        <v>1.046063655754016</v>
       </c>
       <c r="M11">
-        <v>1.012396210971135</v>
+        <v>1.049716872837426</v>
       </c>
       <c r="N11">
-        <v>1.005634263942235</v>
+        <v>1.011278958577203</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9729610796876799</v>
+        <v>1.01456855920891</v>
       </c>
       <c r="D12">
-        <v>0.9987437967125457</v>
+        <v>1.021644425320105</v>
       </c>
       <c r="E12">
-        <v>0.9919060409872272</v>
+        <v>1.042264984715457</v>
       </c>
       <c r="F12">
-        <v>0.9961361850760495</v>
+        <v>1.045927415042789</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038024227202607</v>
+        <v>1.029425253922752</v>
       </c>
       <c r="J12">
-        <v>1.003955556371371</v>
+        <v>1.021374447031106</v>
       </c>
       <c r="K12">
-        <v>1.013895103232275</v>
+        <v>1.02531127785842</v>
       </c>
       <c r="L12">
-        <v>1.007189968875151</v>
+        <v>1.045853681511796</v>
       </c>
       <c r="M12">
-        <v>1.011337785956607</v>
+        <v>1.049502587086027</v>
       </c>
       <c r="N12">
-        <v>1.005441458084491</v>
+        <v>1.011242213967003</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.973194132774755</v>
+        <v>1.014611452858518</v>
       </c>
       <c r="D13">
-        <v>0.998907994487368</v>
+        <v>1.021675186298441</v>
       </c>
       <c r="E13">
-        <v>0.9921745964657734</v>
+        <v>1.042319797783507</v>
       </c>
       <c r="F13">
-        <v>0.9964134127722324</v>
+        <v>1.045983118671724</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038093815133342</v>
+        <v>1.029433193904486</v>
       </c>
       <c r="J13">
-        <v>1.004080993995491</v>
+        <v>1.021398315470947</v>
       </c>
       <c r="K13">
-        <v>1.014012041201429</v>
+        <v>1.025332124014048</v>
       </c>
       <c r="L13">
-        <v>1.007408726702496</v>
+        <v>1.045898718494252</v>
       </c>
       <c r="M13">
-        <v>1.011565384145459</v>
+        <v>1.04954855135365</v>
       </c>
       <c r="N13">
-        <v>1.005482923049403</v>
+        <v>1.011250096974714</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.973955603603484</v>
+        <v>1.01475200537325</v>
       </c>
       <c r="D14">
-        <v>0.9994445576895801</v>
+        <v>1.021775972428804</v>
       </c>
       <c r="E14">
-        <v>0.9930522138573219</v>
+        <v>1.042499428389218</v>
       </c>
       <c r="F14">
-        <v>0.9973192900736473</v>
+        <v>1.04616565775562</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038320758257131</v>
+        <v>1.029459153882183</v>
       </c>
       <c r="J14">
-        <v>1.004490751354459</v>
+        <v>1.021476509746662</v>
       </c>
       <c r="K14">
-        <v>1.014393939069763</v>
+        <v>1.02540040077793</v>
       </c>
       <c r="L14">
-        <v>1.008123498168034</v>
+        <v>1.046046297773737</v>
       </c>
       <c r="M14">
-        <v>1.012308973835552</v>
+        <v>1.049699159571938</v>
       </c>
       <c r="N14">
-        <v>1.005618374839491</v>
+        <v>1.011275921781563</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9744231405605979</v>
+        <v>1.014838610735394</v>
       </c>
       <c r="D15">
-        <v>0.9997740539902562</v>
+        <v>1.021838066616821</v>
       </c>
       <c r="E15">
-        <v>0.9935911774256457</v>
+        <v>1.042610128845313</v>
       </c>
       <c r="F15">
-        <v>0.9978755472080029</v>
+        <v>1.046278142939844</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038459772330236</v>
+        <v>1.029475105834361</v>
       </c>
       <c r="J15">
-        <v>1.004742266690987</v>
+        <v>1.021524678280992</v>
       </c>
       <c r="K15">
-        <v>1.014628281269906</v>
+        <v>1.025442447496154</v>
       </c>
       <c r="L15">
-        <v>1.008562369232524</v>
+        <v>1.046137235612358</v>
       </c>
       <c r="M15">
-        <v>1.012765488004412</v>
+        <v>1.049791956457782</v>
       </c>
       <c r="N15">
-        <v>1.005701518266605</v>
+        <v>1.011291829882421</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9771199734214734</v>
+        <v>1.015342786833271</v>
       </c>
       <c r="D16">
-        <v>1.001675361465412</v>
+        <v>1.022199427342061</v>
       </c>
       <c r="E16">
-        <v>0.9967017771913351</v>
+        <v>1.043254820918604</v>
       </c>
       <c r="F16">
-        <v>1.001085018350027</v>
+        <v>1.046933111650142</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039256622100705</v>
+        <v>1.029567298298943</v>
       </c>
       <c r="J16">
-        <v>1.006191927289119</v>
+        <v>1.021804893527724</v>
       </c>
       <c r="K16">
-        <v>1.015977843472401</v>
+        <v>1.025686858346195</v>
       </c>
       <c r="L16">
-        <v>1.011093984825363</v>
+        <v>1.04666667573101</v>
       </c>
       <c r="M16">
-        <v>1.015398089820194</v>
+        <v>1.050332107267611</v>
       </c>
       <c r="N16">
-        <v>1.00618074728617</v>
+        <v>1.011384369487489</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9787905907751304</v>
+        <v>1.015659126150684</v>
       </c>
       <c r="D17">
-        <v>1.00285374319177</v>
+        <v>1.022426050210369</v>
       </c>
       <c r="E17">
-        <v>0.9986303085702726</v>
+        <v>1.043659542344217</v>
       </c>
       <c r="F17">
-        <v>1.003074020138201</v>
+        <v>1.047344181272255</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039745806864146</v>
+        <v>1.02962455087606</v>
       </c>
       <c r="J17">
-        <v>1.007088942025492</v>
+        <v>1.021980535327085</v>
       </c>
       <c r="K17">
-        <v>1.016811920287286</v>
+        <v>1.025839888714376</v>
       </c>
       <c r="L17">
-        <v>1.012662396135385</v>
+        <v>1.046998904549283</v>
       </c>
       <c r="M17">
-        <v>1.01702836447544</v>
+        <v>1.050670957826529</v>
       </c>
       <c r="N17">
-        <v>1.006477294219035</v>
+        <v>1.011442370673676</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9797576401508088</v>
+        <v>1.015843670987197</v>
       </c>
       <c r="D18">
-        <v>1.003536041703726</v>
+        <v>1.022558217239845</v>
       </c>
       <c r="E18">
-        <v>0.9997472458211883</v>
+        <v>1.043895725706223</v>
       </c>
       <c r="F18">
-        <v>1.004225679308659</v>
+        <v>1.04758403205619</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040027357076162</v>
+        <v>1.029657737036471</v>
       </c>
       <c r="J18">
-        <v>1.00760781104363</v>
+        <v>1.022082937097705</v>
       </c>
       <c r="K18">
-        <v>1.017294016338904</v>
+        <v>1.025929046700365</v>
       </c>
       <c r="L18">
-        <v>1.013570343558152</v>
+        <v>1.047192732827177</v>
       </c>
       <c r="M18">
-        <v>1.01797186850675</v>
+        <v>1.050868613525362</v>
       </c>
       <c r="N18">
-        <v>1.00664883248079</v>
+        <v>1.011476184922348</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9800861421782694</v>
+        <v>1.015906600963727</v>
       </c>
       <c r="D19">
-        <v>1.00376784426748</v>
+        <v>1.02260327963413</v>
       </c>
       <c r="E19">
-        <v>1.000126766174</v>
+        <v>1.043976277815702</v>
       </c>
       <c r="F19">
-        <v>1.004616946551603</v>
+        <v>1.047665828658751</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040122722104789</v>
+        <v>1.029669017305543</v>
       </c>
       <c r="J19">
-        <v>1.007784003830178</v>
+        <v>1.022117845431339</v>
       </c>
       <c r="K19">
-        <v>1.017457659118455</v>
+        <v>1.025959429926591</v>
       </c>
       <c r="L19">
-        <v>1.013878780144813</v>
+        <v>1.047258830843372</v>
       </c>
       <c r="M19">
-        <v>1.01829234020347</v>
+        <v>1.050936010664418</v>
       </c>
       <c r="N19">
-        <v>1.00670708245668</v>
+        <v>1.01148771183612</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9786121182139508</v>
+        <v>1.015625182878212</v>
       </c>
       <c r="D20">
-        <v>1.00272783678778</v>
+        <v>1.022401737597526</v>
       </c>
       <c r="E20">
-        <v>0.9984242219143937</v>
+        <v>1.043616107540601</v>
       </c>
       <c r="F20">
-        <v>1.002861502605388</v>
+        <v>1.047300069025376</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039693714540649</v>
+        <v>1.029618429756294</v>
       </c>
       <c r="J20">
-        <v>1.006993152304965</v>
+        <v>1.021961695490534</v>
       </c>
       <c r="K20">
-        <v>1.016722889466514</v>
+        <v>1.025823480550065</v>
       </c>
       <c r="L20">
-        <v>1.012494836187505</v>
+        <v>1.046963254899246</v>
       </c>
       <c r="M20">
-        <v>1.016854221866957</v>
+        <v>1.050634601338163</v>
       </c>
       <c r="N20">
-        <v>1.006445626396602</v>
+        <v>1.011436149436785</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9737317101826647</v>
+        <v>1.014710614842002</v>
       </c>
       <c r="D21">
-        <v>0.9992867825757203</v>
+        <v>1.021746294146017</v>
       </c>
       <c r="E21">
-        <v>0.9927941465522948</v>
+        <v>1.042446526628664</v>
       </c>
       <c r="F21">
-        <v>0.997052925626268</v>
+        <v>1.046111901037416</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038254098893598</v>
+        <v>1.029451518240456</v>
       </c>
       <c r="J21">
-        <v>1.004370286437557</v>
+        <v>1.021453485466885</v>
       </c>
       <c r="K21">
-        <v>1.014281679689784</v>
+        <v>1.025380299314065</v>
       </c>
       <c r="L21">
-        <v>1.007913334216953</v>
+        <v>1.046002837400193</v>
       </c>
       <c r="M21">
-        <v>1.012090347167409</v>
+        <v>1.049654808747325</v>
       </c>
       <c r="N21">
-        <v>1.005578553030621</v>
+        <v>1.011268317730377</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9705924956631344</v>
+        <v>1.014135864419119</v>
       </c>
       <c r="D22">
-        <v>0.9970755861797737</v>
+        <v>1.021334037831645</v>
       </c>
       <c r="E22">
-        <v>0.9891777858167943</v>
+        <v>1.041712216826956</v>
       </c>
       <c r="F22">
-        <v>0.9933191911082677</v>
+        <v>1.045365586805021</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037313602461676</v>
+        <v>1.029344702940957</v>
       </c>
       <c r="J22">
-        <v>1.002679962901625</v>
+        <v>1.021133536288737</v>
       </c>
       <c r="K22">
-        <v>1.012705199743348</v>
+        <v>1.025100742404082</v>
       </c>
       <c r="L22">
-        <v>1.004966725264368</v>
+        <v>1.045399393511427</v>
       </c>
       <c r="M22">
-        <v>1.009024168154921</v>
+        <v>1.049038869273865</v>
       </c>
       <c r="N22">
-        <v>1.005019806736391</v>
+        <v>1.011162645874159</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.972263561830995</v>
+        <v>1.014440523991724</v>
       </c>
       <c r="D23">
-        <v>0.9982524195076325</v>
+        <v>1.021552596652772</v>
       </c>
       <c r="E23">
-        <v>0.9911023895486836</v>
+        <v>1.042101388359292</v>
       </c>
       <c r="F23">
-        <v>0.9953065141127937</v>
+        <v>1.045761152222855</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037815592670471</v>
+        <v>1.029401504890523</v>
       </c>
       <c r="J23">
-        <v>1.003580048019207</v>
+        <v>1.021303186618078</v>
       </c>
       <c r="K23">
-        <v>1.013544959729442</v>
+        <v>1.025249026803866</v>
       </c>
       <c r="L23">
-        <v>1.006535242596135</v>
+        <v>1.045719251557709</v>
       </c>
       <c r="M23">
-        <v>1.010656544602333</v>
+        <v>1.049365381153747</v>
       </c>
       <c r="N23">
-        <v>1.005317330364176</v>
+        <v>1.011218678564715</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9786927850874054</v>
+        <v>1.015640520291061</v>
       </c>
       <c r="D24">
-        <v>1.002784743997287</v>
+        <v>1.022412723477341</v>
       </c>
       <c r="E24">
-        <v>0.998517368096268</v>
+        <v>1.043635733499691</v>
       </c>
       <c r="F24">
-        <v>1.002957556319656</v>
+        <v>1.047320001201219</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039717264496591</v>
+        <v>1.029621196270513</v>
       </c>
       <c r="J24">
-        <v>1.007036448960619</v>
+        <v>1.021970208547415</v>
       </c>
       <c r="K24">
-        <v>1.016763132260954</v>
+        <v>1.025830895008639</v>
       </c>
       <c r="L24">
-        <v>1.012570570535534</v>
+        <v>1.046979363303071</v>
       </c>
       <c r="M24">
-        <v>1.016932932263651</v>
+        <v>1.050651029239738</v>
       </c>
       <c r="N24">
-        <v>1.00645994014241</v>
+        <v>1.011438960598084</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9858652865297584</v>
+        <v>1.017034200074414</v>
       </c>
       <c r="D25">
-        <v>1.007847894161841</v>
+        <v>1.023410130546142</v>
       </c>
       <c r="E25">
-        <v>1.00681260263273</v>
+        <v>1.045420811177712</v>
       </c>
       <c r="F25">
-        <v>1.011505258537661</v>
+        <v>1.049132126209569</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04177619785655</v>
+        <v>1.029867961956948</v>
       </c>
       <c r="J25">
-        <v>1.010877886664593</v>
+        <v>1.022742398167697</v>
       </c>
       <c r="K25">
-        <v>1.020325591116126</v>
+        <v>1.02650211362723</v>
       </c>
       <c r="L25">
-        <v>1.019306074306079</v>
+        <v>1.048443408808288</v>
       </c>
       <c r="M25">
-        <v>1.0239275575371</v>
+        <v>1.052143337554652</v>
       </c>
       <c r="N25">
-        <v>1.007729972392485</v>
+        <v>1.011693922839263</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_83/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_83/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018146673569414</v>
+        <v>0.9913732534279254</v>
       </c>
       <c r="D2">
-        <v>1.024205015779447</v>
+        <v>1.011739147395812</v>
       </c>
       <c r="E2">
-        <v>1.046848230342142</v>
+        <v>1.013202992735281</v>
       </c>
       <c r="F2">
-        <v>1.050579995130683</v>
+        <v>1.018080619433413</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030058161607156</v>
+        <v>1.043305240237919</v>
       </c>
       <c r="J2">
-        <v>1.023356762531119</v>
+        <v>1.013815086596725</v>
       </c>
       <c r="K2">
-        <v>1.027034201238806</v>
+        <v>1.023037324417766</v>
       </c>
       <c r="L2">
-        <v>1.049612517975328</v>
+        <v>1.024481403008048</v>
       </c>
       <c r="M2">
-        <v>1.053333878358224</v>
+        <v>1.029293680747323</v>
       </c>
       <c r="N2">
-        <v>1.011896732055202</v>
+        <v>1.008701108786694</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01895491357453</v>
+        <v>0.9952579982142801</v>
       </c>
       <c r="D3">
-        <v>1.024781769266521</v>
+        <v>1.014484329475176</v>
       </c>
       <c r="E3">
-        <v>1.047886765717097</v>
+        <v>1.017722663172759</v>
       </c>
       <c r="F3">
-        <v>1.051632725503216</v>
+        <v>1.022725497034219</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030192409588552</v>
+        <v>1.044352563979431</v>
       </c>
       <c r="J3">
-        <v>1.023801938309647</v>
+        <v>1.015878775069103</v>
       </c>
       <c r="K3">
-        <v>1.027418623519208</v>
+        <v>1.024935175217605</v>
       </c>
       <c r="L3">
-        <v>1.050462189824797</v>
+        <v>1.02813369199124</v>
       </c>
       <c r="M3">
-        <v>1.054198464564233</v>
+        <v>1.033075629167208</v>
       </c>
       <c r="N3">
-        <v>1.012043665117992</v>
+        <v>1.00938344093795</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019478115695039</v>
+        <v>0.9977214037039654</v>
       </c>
       <c r="D4">
-        <v>1.025154770441733</v>
+        <v>1.016225087309248</v>
       </c>
       <c r="E4">
-        <v>1.048559736440967</v>
+        <v>1.020594766396913</v>
       </c>
       <c r="F4">
-        <v>1.052314578351837</v>
+        <v>1.025674532072809</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030277488851436</v>
+        <v>1.045001975888228</v>
       </c>
       <c r="J4">
-        <v>1.024089570743041</v>
+        <v>1.017183576350638</v>
       </c>
       <c r="K4">
-        <v>1.0276664745932</v>
+        <v>1.026131555671382</v>
       </c>
       <c r="L4">
-        <v>1.051012348357931</v>
+        <v>1.030450825954905</v>
       </c>
       <c r="M4">
-        <v>1.0547579734125</v>
+        <v>1.035472656917704</v>
       </c>
       <c r="N4">
-        <v>1.012138588311127</v>
+        <v>1.009814852099127</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019698120345175</v>
+        <v>0.998745360665873</v>
       </c>
       <c r="D5">
-        <v>1.025311531306125</v>
+        <v>1.016948607090757</v>
       </c>
       <c r="E5">
-        <v>1.048842884398875</v>
+        <v>1.021790102265894</v>
       </c>
       <c r="F5">
-        <v>1.05260138770807</v>
+        <v>1.02690124922415</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030312827277336</v>
+        <v>1.04526833415763</v>
       </c>
       <c r="J5">
-        <v>1.024210388337002</v>
+        <v>1.017724994922503</v>
       </c>
       <c r="K5">
-        <v>1.027770455508196</v>
+        <v>1.026627109671174</v>
       </c>
       <c r="L5">
-        <v>1.051243721338312</v>
+        <v>1.031414274362283</v>
       </c>
       <c r="M5">
-        <v>1.054993205230426</v>
+        <v>1.036468748125232</v>
       </c>
       <c r="N5">
-        <v>1.012178457176797</v>
+        <v>1.009993860936339</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01973506301272</v>
+        <v>0.9989166145738237</v>
       </c>
       <c r="D6">
-        <v>1.025337849232278</v>
+        <v>1.017069608983466</v>
       </c>
       <c r="E6">
-        <v>1.048890439710933</v>
+        <v>1.021990107895514</v>
       </c>
       <c r="F6">
-        <v>1.052649553521719</v>
+        <v>1.027106468048201</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030318735580296</v>
+        <v>1.04531266989101</v>
       </c>
       <c r="J6">
-        <v>1.024230668066433</v>
+        <v>1.017815489386754</v>
       </c>
       <c r="K6">
-        <v>1.02778790167872</v>
+        <v>1.026709886079655</v>
       </c>
       <c r="L6">
-        <v>1.05128257491872</v>
+        <v>1.031575426092274</v>
       </c>
       <c r="M6">
-        <v>1.055032702498106</v>
+        <v>1.036635325733782</v>
       </c>
       <c r="N6">
-        <v>1.012185149163158</v>
+        <v>1.010023780883532</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019481055211382</v>
+        <v>0.9977351311876335</v>
       </c>
       <c r="D7">
-        <v>1.025156865282085</v>
+        <v>1.016234787326739</v>
       </c>
       <c r="E7">
-        <v>1.048563518971021</v>
+        <v>1.020610785477153</v>
       </c>
       <c r="F7">
-        <v>1.05231841009127</v>
+        <v>1.025690974224526</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030277962731502</v>
+        <v>1.045005560979444</v>
       </c>
       <c r="J7">
-        <v>1.024091185520046</v>
+        <v>1.017190838539948</v>
       </c>
       <c r="K7">
-        <v>1.027667864840266</v>
+        <v>1.026138206156995</v>
       </c>
       <c r="L7">
-        <v>1.051015439636812</v>
+        <v>1.030463741064455</v>
       </c>
       <c r="M7">
-        <v>1.054761116536597</v>
+        <v>1.035486011895061</v>
       </c>
       <c r="N7">
-        <v>1.012139121186113</v>
+        <v>1.009817253202475</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018419776321182</v>
+        <v>0.9926967670020621</v>
       </c>
       <c r="D8">
-        <v>1.024399972074914</v>
+        <v>1.012674391680172</v>
       </c>
       <c r="E8">
-        <v>1.047199007084129</v>
+        <v>1.014741572312597</v>
       </c>
       <c r="F8">
-        <v>1.050935631807771</v>
+        <v>1.019662369995108</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03010390110678</v>
+        <v>1.043665114225497</v>
       </c>
       <c r="J8">
-        <v>1.023507299340611</v>
+        <v>1.014518962647047</v>
       </c>
       <c r="K8">
-        <v>1.027164303314424</v>
+        <v>1.023685374147678</v>
       </c>
       <c r="L8">
-        <v>1.049899592688768</v>
+        <v>1.025725494522218</v>
       </c>
       <c r="M8">
-        <v>1.053626055531801</v>
+        <v>1.030582429198178</v>
       </c>
       <c r="N8">
-        <v>1.011946420084444</v>
+        <v>1.008933836614449</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016551390287422</v>
+        <v>0.983415420862103</v>
       </c>
       <c r="D9">
-        <v>1.02306479592698</v>
+        <v>1.006117858684094</v>
       </c>
       <c r="E9">
-        <v>1.044802022460878</v>
+        <v>1.003976176510612</v>
       </c>
       <c r="F9">
-        <v>1.048504143781331</v>
+        <v>1.008583990947797</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029783522555148</v>
+        <v>1.041081025233303</v>
       </c>
       <c r="J9">
-        <v>1.022475201661363</v>
+        <v>1.009567729823273</v>
       </c>
       <c r="K9">
-        <v>1.026270155546002</v>
+        <v>1.019112451632379</v>
       </c>
       <c r="L9">
-        <v>1.047936151749639</v>
+        <v>1.017005070753141</v>
       </c>
       <c r="M9">
-        <v>1.051626463805487</v>
+        <v>1.02153931734999</v>
       </c>
       <c r="N9">
-        <v>1.011605706130513</v>
+        <v>1.00729680383645</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015307041464747</v>
+        <v>0.9769301638376409</v>
       </c>
       <c r="D10">
-        <v>1.022173814345917</v>
+        <v>1.001541504547917</v>
       </c>
       <c r="E10">
-        <v>1.043209099243703</v>
+        <v>0.9964827437924647</v>
       </c>
       <c r="F10">
-        <v>1.046886667783982</v>
+        <v>1.00085907624203</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029560800040062</v>
+        <v>1.039200823510378</v>
       </c>
       <c r="J10">
-        <v>1.02178503796283</v>
+        <v>1.006089961360545</v>
       </c>
       <c r="K10">
-        <v>1.025669550662573</v>
+        <v>1.015882982320628</v>
       </c>
       <c r="L10">
-        <v>1.046629136759671</v>
+        <v>1.010915795109351</v>
       </c>
       <c r="M10">
-        <v>1.050293815253129</v>
+        <v>1.015212837106263</v>
       </c>
       <c r="N10">
-        <v>1.01137781252228</v>
+        <v>1.006147038589831</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014768536535882</v>
+        <v>0.9740449444859453</v>
       </c>
       <c r="D11">
-        <v>1.021787825390617</v>
+        <v>0.999507517649922</v>
       </c>
       <c r="E11">
-        <v>1.0425205578577</v>
+        <v>0.9931551967909956</v>
       </c>
       <c r="F11">
-        <v>1.046187128328855</v>
+        <v>0.9974255810241773</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029462201374751</v>
+        <v>1.038347341595321</v>
       </c>
       <c r="J11">
-        <v>1.021485704888454</v>
+        <v>1.004538817310584</v>
       </c>
       <c r="K11">
-        <v>1.025408428033314</v>
+        <v>1.014438727446595</v>
       </c>
       <c r="L11">
-        <v>1.046063655754016</v>
+        <v>1.008207360889022</v>
       </c>
       <c r="M11">
-        <v>1.049716872837426</v>
+        <v>1.012396210971135</v>
       </c>
       <c r="N11">
-        <v>1.011278958577203</v>
+        <v>1.005634263942235</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01456855920891</v>
+        <v>0.9729610796876795</v>
       </c>
       <c r="D12">
-        <v>1.021644425320105</v>
+        <v>0.9987437967125451</v>
       </c>
       <c r="E12">
-        <v>1.042264984715457</v>
+        <v>0.9919060409872276</v>
       </c>
       <c r="F12">
-        <v>1.045927415042789</v>
+        <v>0.9961361850760494</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029425253922752</v>
+        <v>1.038024227202607</v>
       </c>
       <c r="J12">
-        <v>1.021374447031106</v>
+        <v>1.00395555637137</v>
       </c>
       <c r="K12">
-        <v>1.02531127785842</v>
+        <v>1.013895103232275</v>
       </c>
       <c r="L12">
-        <v>1.045853681511796</v>
+        <v>1.007189968875151</v>
       </c>
       <c r="M12">
-        <v>1.049502587086027</v>
+        <v>1.011337785956607</v>
       </c>
       <c r="N12">
-        <v>1.011242213967003</v>
+        <v>1.005441458084491</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.014611452858518</v>
+        <v>0.9731941327747551</v>
       </c>
       <c r="D13">
-        <v>1.021675186298441</v>
+        <v>0.9989079944873678</v>
       </c>
       <c r="E13">
-        <v>1.042319797783507</v>
+        <v>0.9921745964657737</v>
       </c>
       <c r="F13">
-        <v>1.045983118671724</v>
+        <v>0.9964134127722327</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029433193904486</v>
+        <v>1.038093815133342</v>
       </c>
       <c r="J13">
-        <v>1.021398315470947</v>
+        <v>1.004080993995491</v>
       </c>
       <c r="K13">
-        <v>1.025332124014048</v>
+        <v>1.014012041201429</v>
       </c>
       <c r="L13">
-        <v>1.045898718494252</v>
+        <v>1.007408726702497</v>
       </c>
       <c r="M13">
-        <v>1.04954855135365</v>
+        <v>1.01156538414546</v>
       </c>
       <c r="N13">
-        <v>1.011250096974714</v>
+        <v>1.005482923049403</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01475200537325</v>
+        <v>0.9739556036034844</v>
       </c>
       <c r="D14">
-        <v>1.021775972428804</v>
+        <v>0.9994445576895801</v>
       </c>
       <c r="E14">
-        <v>1.042499428389218</v>
+        <v>0.9930522138573222</v>
       </c>
       <c r="F14">
-        <v>1.04616565775562</v>
+        <v>0.9973192900736477</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029459153882183</v>
+        <v>1.038320758257131</v>
       </c>
       <c r="J14">
-        <v>1.021476509746662</v>
+        <v>1.004490751354459</v>
       </c>
       <c r="K14">
-        <v>1.02540040077793</v>
+        <v>1.014393939069763</v>
       </c>
       <c r="L14">
-        <v>1.046046297773737</v>
+        <v>1.008123498168034</v>
       </c>
       <c r="M14">
-        <v>1.049699159571938</v>
+        <v>1.012308973835552</v>
       </c>
       <c r="N14">
-        <v>1.011275921781563</v>
+        <v>1.005618374839491</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014838610735394</v>
+        <v>0.9744231405605985</v>
       </c>
       <c r="D15">
-        <v>1.021838066616821</v>
+        <v>0.9997740539902565</v>
       </c>
       <c r="E15">
-        <v>1.042610128845313</v>
+        <v>0.9935911774256462</v>
       </c>
       <c r="F15">
-        <v>1.046278142939844</v>
+        <v>0.9978755472080035</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029475105834361</v>
+        <v>1.038459772330236</v>
       </c>
       <c r="J15">
-        <v>1.021524678280992</v>
+        <v>1.004742266690988</v>
       </c>
       <c r="K15">
-        <v>1.025442447496154</v>
+        <v>1.014628281269906</v>
       </c>
       <c r="L15">
-        <v>1.046137235612358</v>
+        <v>1.008562369232524</v>
       </c>
       <c r="M15">
-        <v>1.049791956457782</v>
+        <v>1.012765488004413</v>
       </c>
       <c r="N15">
-        <v>1.011291829882421</v>
+        <v>1.005701518266605</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015342786833271</v>
+        <v>0.9771199734214732</v>
       </c>
       <c r="D16">
-        <v>1.022199427342061</v>
+        <v>1.001675361465412</v>
       </c>
       <c r="E16">
-        <v>1.043254820918604</v>
+        <v>0.9967017771913349</v>
       </c>
       <c r="F16">
-        <v>1.046933111650142</v>
+        <v>1.001085018350027</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029567298298943</v>
+        <v>1.039256622100705</v>
       </c>
       <c r="J16">
-        <v>1.021804893527724</v>
+        <v>1.006191927289119</v>
       </c>
       <c r="K16">
-        <v>1.025686858346195</v>
+        <v>1.015977843472401</v>
       </c>
       <c r="L16">
-        <v>1.04666667573101</v>
+        <v>1.011093984825363</v>
       </c>
       <c r="M16">
-        <v>1.050332107267611</v>
+        <v>1.015398089820194</v>
       </c>
       <c r="N16">
-        <v>1.011384369487489</v>
+        <v>1.00618074728617</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015659126150684</v>
+        <v>0.9787905907751304</v>
       </c>
       <c r="D17">
-        <v>1.022426050210369</v>
+        <v>1.002853743191771</v>
       </c>
       <c r="E17">
-        <v>1.043659542344217</v>
+        <v>0.9986303085702728</v>
       </c>
       <c r="F17">
-        <v>1.047344181272255</v>
+        <v>1.003074020138202</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02962455087606</v>
+        <v>1.039745806864146</v>
       </c>
       <c r="J17">
-        <v>1.021980535327085</v>
+        <v>1.007088942025492</v>
       </c>
       <c r="K17">
-        <v>1.025839888714376</v>
+        <v>1.016811920287286</v>
       </c>
       <c r="L17">
-        <v>1.046998904549283</v>
+        <v>1.012662396135385</v>
       </c>
       <c r="M17">
-        <v>1.050670957826529</v>
+        <v>1.01702836447544</v>
       </c>
       <c r="N17">
-        <v>1.011442370673676</v>
+        <v>1.006477294219035</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015843670987197</v>
+        <v>0.9797576401508091</v>
       </c>
       <c r="D18">
-        <v>1.022558217239845</v>
+        <v>1.003536041703727</v>
       </c>
       <c r="E18">
-        <v>1.043895725706223</v>
+        <v>0.9997472458211886</v>
       </c>
       <c r="F18">
-        <v>1.04758403205619</v>
+        <v>1.004225679308659</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029657737036471</v>
+        <v>1.040027357076162</v>
       </c>
       <c r="J18">
-        <v>1.022082937097705</v>
+        <v>1.007607811043631</v>
       </c>
       <c r="K18">
-        <v>1.025929046700365</v>
+        <v>1.017294016338904</v>
       </c>
       <c r="L18">
-        <v>1.047192732827177</v>
+        <v>1.013570343558152</v>
       </c>
       <c r="M18">
-        <v>1.050868613525362</v>
+        <v>1.01797186850675</v>
       </c>
       <c r="N18">
-        <v>1.011476184922348</v>
+        <v>1.006648832480791</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015906600963727</v>
+        <v>0.9800861421782697</v>
       </c>
       <c r="D19">
-        <v>1.02260327963413</v>
+        <v>1.00376784426748</v>
       </c>
       <c r="E19">
-        <v>1.043976277815702</v>
+        <v>1.000126766174001</v>
       </c>
       <c r="F19">
-        <v>1.047665828658751</v>
+        <v>1.004616946551603</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029669017305543</v>
+        <v>1.040122722104789</v>
       </c>
       <c r="J19">
-        <v>1.022117845431339</v>
+        <v>1.007784003830179</v>
       </c>
       <c r="K19">
-        <v>1.025959429926591</v>
+        <v>1.017457659118455</v>
       </c>
       <c r="L19">
-        <v>1.047258830843372</v>
+        <v>1.013878780144815</v>
       </c>
       <c r="M19">
-        <v>1.050936010664418</v>
+        <v>1.018292340203471</v>
       </c>
       <c r="N19">
-        <v>1.01148771183612</v>
+        <v>1.00670708245668</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015625182878212</v>
+        <v>0.9786121182139511</v>
       </c>
       <c r="D20">
-        <v>1.022401737597526</v>
+        <v>1.00272783678778</v>
       </c>
       <c r="E20">
-        <v>1.043616107540601</v>
+        <v>0.9984242219143935</v>
       </c>
       <c r="F20">
-        <v>1.047300069025376</v>
+        <v>1.002861502605388</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029618429756294</v>
+        <v>1.03969371454065</v>
       </c>
       <c r="J20">
-        <v>1.021961695490534</v>
+        <v>1.006993152304965</v>
       </c>
       <c r="K20">
-        <v>1.025823480550065</v>
+        <v>1.016722889466514</v>
       </c>
       <c r="L20">
-        <v>1.046963254899246</v>
+        <v>1.012494836187504</v>
       </c>
       <c r="M20">
-        <v>1.050634601338163</v>
+        <v>1.016854221866957</v>
       </c>
       <c r="N20">
-        <v>1.011436149436785</v>
+        <v>1.006445626396602</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.014710614842002</v>
+        <v>0.9737317101826644</v>
       </c>
       <c r="D21">
-        <v>1.021746294146017</v>
+        <v>0.99928678257572</v>
       </c>
       <c r="E21">
-        <v>1.042446526628664</v>
+        <v>0.9927941465522947</v>
       </c>
       <c r="F21">
-        <v>1.046111901037416</v>
+        <v>0.997052925626268</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029451518240456</v>
+        <v>1.038254098893598</v>
       </c>
       <c r="J21">
-        <v>1.021453485466885</v>
+        <v>1.004370286437556</v>
       </c>
       <c r="K21">
-        <v>1.025380299314065</v>
+        <v>1.014281679689784</v>
       </c>
       <c r="L21">
-        <v>1.046002837400193</v>
+        <v>1.007913334216952</v>
       </c>
       <c r="M21">
-        <v>1.049654808747325</v>
+        <v>1.012090347167408</v>
       </c>
       <c r="N21">
-        <v>1.011268317730377</v>
+        <v>1.005578553030621</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014135864419119</v>
+        <v>0.970592495663134</v>
       </c>
       <c r="D22">
-        <v>1.021334037831645</v>
+        <v>0.9970755861797729</v>
       </c>
       <c r="E22">
-        <v>1.041712216826956</v>
+        <v>0.9891777858167935</v>
       </c>
       <c r="F22">
-        <v>1.045365586805021</v>
+        <v>0.9933191911082666</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029344702940957</v>
+        <v>1.037313602461676</v>
       </c>
       <c r="J22">
-        <v>1.021133536288737</v>
+        <v>1.002679962901624</v>
       </c>
       <c r="K22">
-        <v>1.025100742404082</v>
+        <v>1.012705199743347</v>
       </c>
       <c r="L22">
-        <v>1.045399393511427</v>
+        <v>1.004966725264367</v>
       </c>
       <c r="M22">
-        <v>1.049038869273865</v>
+        <v>1.00902416815492</v>
       </c>
       <c r="N22">
-        <v>1.011162645874159</v>
+        <v>1.005019806736391</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.014440523991724</v>
+        <v>0.9722635618309957</v>
       </c>
       <c r="D23">
-        <v>1.021552596652772</v>
+        <v>0.9982524195076331</v>
       </c>
       <c r="E23">
-        <v>1.042101388359292</v>
+        <v>0.9911023895486835</v>
       </c>
       <c r="F23">
-        <v>1.045761152222855</v>
+        <v>0.9953065141127936</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029401504890523</v>
+        <v>1.037815592670471</v>
       </c>
       <c r="J23">
-        <v>1.021303186618078</v>
+        <v>1.003580048019208</v>
       </c>
       <c r="K23">
-        <v>1.025249026803866</v>
+        <v>1.013544959729442</v>
       </c>
       <c r="L23">
-        <v>1.045719251557709</v>
+        <v>1.006535242596134</v>
       </c>
       <c r="M23">
-        <v>1.049365381153747</v>
+        <v>1.010656544602333</v>
       </c>
       <c r="N23">
-        <v>1.011218678564715</v>
+        <v>1.005317330364176</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015640520291061</v>
+        <v>0.9786927850874062</v>
       </c>
       <c r="D24">
-        <v>1.022412723477341</v>
+        <v>1.002784743997287</v>
       </c>
       <c r="E24">
-        <v>1.043635733499691</v>
+        <v>0.9985173680962685</v>
       </c>
       <c r="F24">
-        <v>1.047320001201219</v>
+        <v>1.002957556319656</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029621196270513</v>
+        <v>1.039717264496591</v>
       </c>
       <c r="J24">
-        <v>1.021970208547415</v>
+        <v>1.007036448960619</v>
       </c>
       <c r="K24">
-        <v>1.025830895008639</v>
+        <v>1.016763132260954</v>
       </c>
       <c r="L24">
-        <v>1.046979363303071</v>
+        <v>1.012570570535534</v>
       </c>
       <c r="M24">
-        <v>1.050651029239738</v>
+        <v>1.016932932263651</v>
       </c>
       <c r="N24">
-        <v>1.011438960598084</v>
+        <v>1.00645994014241</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017034200074414</v>
+        <v>0.9858652865297584</v>
       </c>
       <c r="D25">
-        <v>1.023410130546142</v>
+        <v>1.00784789416184</v>
       </c>
       <c r="E25">
-        <v>1.045420811177712</v>
+        <v>1.006812602632729</v>
       </c>
       <c r="F25">
-        <v>1.049132126209569</v>
+        <v>1.011505258537661</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029867961956948</v>
+        <v>1.04177619785655</v>
       </c>
       <c r="J25">
-        <v>1.022742398167697</v>
+        <v>1.010877886664593</v>
       </c>
       <c r="K25">
-        <v>1.02650211362723</v>
+        <v>1.020325591116126</v>
       </c>
       <c r="L25">
-        <v>1.048443408808288</v>
+        <v>1.019306074306078</v>
       </c>
       <c r="M25">
-        <v>1.052143337554652</v>
+        <v>1.0239275575371</v>
       </c>
       <c r="N25">
-        <v>1.011693922839263</v>
+        <v>1.007729972392485</v>
       </c>
     </row>
   </sheetData>
